--- a/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
+++ b/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
+++ b/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="553">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>2.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-17T00:00:00+02:00</t>
+    <t>2025-03-04T00:00:00+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -117,7 +117,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>172</t>
+    <t>173</t>
   </si>
   <si>
     <t>Level</t>
@@ -937,6 +937,12 @@
   </si>
   <si>
     <t>Zimmer Biomet: Persona UC (Tibia)</t>
+  </si>
+  <si>
+    <t>persona_ppk</t>
+  </si>
+  <si>
+    <t>Zimmer Biomet: Persona Partial Knee</t>
   </si>
   <si>
     <t>pfc_sigma_offset_tibial_tray</t>
@@ -1976,7 +1982,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D173"/>
+  <dimension ref="A1:D174"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3267,7 +3273,7 @@
         <v>309</v>
       </c>
       <c r="D92" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="93">
@@ -3275,13 +3281,13 @@
         <v>39</v>
       </c>
       <c r="B93" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="C93" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="C93" t="s" s="2">
+      <c r="D93" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="D93" t="s" s="2">
-        <v>313</v>
       </c>
     </row>
     <row r="94">
@@ -3289,13 +3295,13 @@
         <v>39</v>
       </c>
       <c r="B94" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="C94" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="C94" t="s" s="2">
+      <c r="D94" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="D94" t="s" s="2">
-        <v>316</v>
       </c>
     </row>
     <row r="95">
@@ -3303,13 +3309,13 @@
         <v>39</v>
       </c>
       <c r="B95" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="C95" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="D95" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="D95" t="s" s="2">
-        <v>319</v>
       </c>
     </row>
     <row r="96">
@@ -3317,13 +3323,13 @@
         <v>39</v>
       </c>
       <c r="B96" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="C96" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="D96" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="D96" t="s" s="2">
-        <v>322</v>
       </c>
     </row>
     <row r="97">
@@ -3331,13 +3337,13 @@
         <v>39</v>
       </c>
       <c r="B97" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="C97" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="D97" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="D97" t="s" s="2">
-        <v>325</v>
       </c>
     </row>
     <row r="98">
@@ -3345,13 +3351,13 @@
         <v>39</v>
       </c>
       <c r="B98" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="C98" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="D98" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="D98" t="s" s="2">
-        <v>328</v>
       </c>
     </row>
     <row r="99">
@@ -3359,13 +3365,13 @@
         <v>39</v>
       </c>
       <c r="B99" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C99" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="D99" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="D99" t="s" s="2">
-        <v>331</v>
       </c>
     </row>
     <row r="100">
@@ -3373,13 +3379,13 @@
         <v>39</v>
       </c>
       <c r="B100" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C100" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="D100" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="D100" t="s" s="2">
-        <v>334</v>
       </c>
     </row>
     <row r="101">
@@ -3387,13 +3393,13 @@
         <v>39</v>
       </c>
       <c r="B101" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="C101" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="C101" t="s" s="2">
+      <c r="D101" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="D101" t="s" s="2">
-        <v>337</v>
       </c>
     </row>
     <row r="102">
@@ -3401,13 +3407,13 @@
         <v>39</v>
       </c>
       <c r="B102" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="C102" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="D102" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="D102" t="s" s="2">
-        <v>340</v>
       </c>
     </row>
     <row r="103">
@@ -3415,13 +3421,13 @@
         <v>39</v>
       </c>
       <c r="B103" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="C103" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="D103" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="D103" t="s" s="2">
-        <v>343</v>
       </c>
     </row>
     <row r="104">
@@ -3429,13 +3435,13 @@
         <v>39</v>
       </c>
       <c r="B104" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="C104" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="D104" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="D104" t="s" s="2">
-        <v>346</v>
       </c>
     </row>
     <row r="105">
@@ -3443,13 +3449,13 @@
         <v>39</v>
       </c>
       <c r="B105" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="C105" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="C105" t="s" s="2">
+      <c r="D105" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="D105" t="s" s="2">
-        <v>349</v>
       </c>
     </row>
     <row r="106">
@@ -3457,13 +3463,13 @@
         <v>39</v>
       </c>
       <c r="B106" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="C106" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="D106" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="D106" t="s" s="2">
-        <v>352</v>
       </c>
     </row>
     <row r="107">
@@ -3471,13 +3477,13 @@
         <v>39</v>
       </c>
       <c r="B107" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="C107" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="D107" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="D107" t="s" s="2">
-        <v>355</v>
       </c>
     </row>
     <row r="108">
@@ -3485,13 +3491,13 @@
         <v>39</v>
       </c>
       <c r="B108" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="C108" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="D108" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="D108" t="s" s="2">
-        <v>358</v>
       </c>
     </row>
     <row r="109">
@@ -3499,13 +3505,13 @@
         <v>39</v>
       </c>
       <c r="B109" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="C109" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="D109" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="D109" t="s" s="2">
-        <v>361</v>
       </c>
     </row>
     <row r="110">
@@ -3513,13 +3519,13 @@
         <v>39</v>
       </c>
       <c r="B110" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="C110" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="D110" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="D110" t="s" s="2">
-        <v>364</v>
       </c>
     </row>
     <row r="111">
@@ -3527,13 +3533,13 @@
         <v>39</v>
       </c>
       <c r="B111" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="C111" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="D111" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="D111" t="s" s="2">
-        <v>367</v>
       </c>
     </row>
     <row r="112">
@@ -3541,13 +3547,13 @@
         <v>39</v>
       </c>
       <c r="B112" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="C112" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="D112" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="D112" t="s" s="2">
-        <v>370</v>
       </c>
     </row>
     <row r="113">
@@ -3555,13 +3561,13 @@
         <v>39</v>
       </c>
       <c r="B113" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="C113" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="D113" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="D113" t="s" s="2">
-        <v>373</v>
       </c>
     </row>
     <row r="114">
@@ -3569,13 +3575,13 @@
         <v>39</v>
       </c>
       <c r="B114" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="C114" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="D114" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="D114" t="s" s="2">
-        <v>376</v>
       </c>
     </row>
     <row r="115">
@@ -3583,13 +3589,13 @@
         <v>39</v>
       </c>
       <c r="B115" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="C115" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="D115" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="D115" t="s" s="2">
-        <v>379</v>
       </c>
     </row>
     <row r="116">
@@ -3597,13 +3603,13 @@
         <v>39</v>
       </c>
       <c r="B116" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="C116" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="D116" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="D116" t="s" s="2">
-        <v>382</v>
       </c>
     </row>
     <row r="117">
@@ -3611,13 +3617,13 @@
         <v>39</v>
       </c>
       <c r="B117" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="C117" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="D117" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="D117" t="s" s="2">
-        <v>385</v>
       </c>
     </row>
     <row r="118">
@@ -3625,13 +3631,13 @@
         <v>39</v>
       </c>
       <c r="B118" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="C118" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="D118" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="D118" t="s" s="2">
-        <v>388</v>
       </c>
     </row>
     <row r="119">
@@ -3639,13 +3645,13 @@
         <v>39</v>
       </c>
       <c r="B119" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="C119" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="D119" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="D119" t="s" s="2">
-        <v>391</v>
       </c>
     </row>
     <row r="120">
@@ -3653,13 +3659,13 @@
         <v>39</v>
       </c>
       <c r="B120" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="C120" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="D120" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="D120" t="s" s="2">
-        <v>394</v>
       </c>
     </row>
     <row r="121">
@@ -3667,13 +3673,13 @@
         <v>39</v>
       </c>
       <c r="B121" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="C121" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="D121" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="D121" t="s" s="2">
-        <v>397</v>
       </c>
     </row>
     <row r="122">
@@ -3681,13 +3687,13 @@
         <v>39</v>
       </c>
       <c r="B122" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="C122" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="D122" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="D122" t="s" s="2">
-        <v>400</v>
       </c>
     </row>
     <row r="123">
@@ -3695,13 +3701,13 @@
         <v>39</v>
       </c>
       <c r="B123" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="C123" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="D123" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="D123" t="s" s="2">
-        <v>403</v>
       </c>
     </row>
     <row r="124">
@@ -3709,13 +3715,13 @@
         <v>39</v>
       </c>
       <c r="B124" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="C124" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="D124" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="D124" t="s" s="2">
-        <v>406</v>
       </c>
     </row>
     <row r="125">
@@ -3723,13 +3729,13 @@
         <v>39</v>
       </c>
       <c r="B125" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="C125" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="D125" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="D125" t="s" s="2">
-        <v>409</v>
       </c>
     </row>
     <row r="126">
@@ -3737,13 +3743,13 @@
         <v>39</v>
       </c>
       <c r="B126" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="C126" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="D126" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="D126" t="s" s="2">
-        <v>412</v>
       </c>
     </row>
     <row r="127">
@@ -3751,13 +3757,13 @@
         <v>39</v>
       </c>
       <c r="B127" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="C127" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="D127" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="D127" t="s" s="2">
-        <v>415</v>
       </c>
     </row>
     <row r="128">
@@ -3765,13 +3771,13 @@
         <v>39</v>
       </c>
       <c r="B128" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="C128" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="D128" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="D128" t="s" s="2">
-        <v>418</v>
       </c>
     </row>
     <row r="129">
@@ -3779,10 +3785,10 @@
         <v>39</v>
       </c>
       <c r="B129" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="C129" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="C129" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="D129" t="s" s="2">
         <v>420</v>
@@ -3827,7 +3833,7 @@
         <v>426</v>
       </c>
       <c r="D132" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="133">
@@ -3835,13 +3841,13 @@
         <v>39</v>
       </c>
       <c r="B133" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="C133" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="D133" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="D133" t="s" s="2">
-        <v>430</v>
       </c>
     </row>
     <row r="134">
@@ -3849,13 +3855,13 @@
         <v>39</v>
       </c>
       <c r="B134" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="C134" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="D134" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="D134" t="s" s="2">
-        <v>433</v>
       </c>
     </row>
     <row r="135">
@@ -3863,13 +3869,13 @@
         <v>39</v>
       </c>
       <c r="B135" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="C135" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="D135" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="D135" t="s" s="2">
-        <v>436</v>
       </c>
     </row>
     <row r="136">
@@ -3877,13 +3883,13 @@
         <v>39</v>
       </c>
       <c r="B136" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="C136" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="D136" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="D136" t="s" s="2">
-        <v>439</v>
       </c>
     </row>
     <row r="137">
@@ -3891,13 +3897,13 @@
         <v>39</v>
       </c>
       <c r="B137" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="C137" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="D137" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="D137" t="s" s="2">
-        <v>442</v>
       </c>
     </row>
     <row r="138">
@@ -3905,13 +3911,13 @@
         <v>39</v>
       </c>
       <c r="B138" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="C138" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="D138" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="D138" t="s" s="2">
-        <v>445</v>
       </c>
     </row>
     <row r="139">
@@ -3919,13 +3925,13 @@
         <v>39</v>
       </c>
       <c r="B139" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="C139" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="D139" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="D139" t="s" s="2">
-        <v>448</v>
       </c>
     </row>
     <row r="140">
@@ -3933,13 +3939,13 @@
         <v>39</v>
       </c>
       <c r="B140" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="C140" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="D140" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="D140" t="s" s="2">
-        <v>451</v>
       </c>
     </row>
     <row r="141">
@@ -3947,13 +3953,13 @@
         <v>39</v>
       </c>
       <c r="B141" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="C141" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="D141" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="D141" t="s" s="2">
-        <v>454</v>
       </c>
     </row>
     <row r="142">
@@ -3961,13 +3967,13 @@
         <v>39</v>
       </c>
       <c r="B142" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="C142" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="D142" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="D142" t="s" s="2">
-        <v>457</v>
       </c>
     </row>
     <row r="143">
@@ -3975,13 +3981,13 @@
         <v>39</v>
       </c>
       <c r="B143" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="C143" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="D143" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="D143" t="s" s="2">
-        <v>460</v>
       </c>
     </row>
     <row r="144">
@@ -3989,13 +3995,13 @@
         <v>39</v>
       </c>
       <c r="B144" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="C144" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="D144" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="D144" t="s" s="2">
-        <v>463</v>
       </c>
     </row>
     <row r="145">
@@ -4003,13 +4009,13 @@
         <v>39</v>
       </c>
       <c r="B145" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="C145" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="D145" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="D145" t="s" s="2">
-        <v>466</v>
       </c>
     </row>
     <row r="146">
@@ -4017,13 +4023,13 @@
         <v>39</v>
       </c>
       <c r="B146" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="C146" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="D146" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="D146" t="s" s="2">
-        <v>469</v>
       </c>
     </row>
     <row r="147">
@@ -4031,13 +4037,13 @@
         <v>39</v>
       </c>
       <c r="B147" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="C147" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="D147" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="D147" t="s" s="2">
-        <v>472</v>
       </c>
     </row>
     <row r="148">
@@ -4045,13 +4051,13 @@
         <v>39</v>
       </c>
       <c r="B148" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="C148" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="D148" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="D148" t="s" s="2">
-        <v>475</v>
       </c>
     </row>
     <row r="149">
@@ -4059,13 +4065,13 @@
         <v>39</v>
       </c>
       <c r="B149" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="C149" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="D149" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="D149" t="s" s="2">
-        <v>478</v>
       </c>
     </row>
     <row r="150">
@@ -4073,13 +4079,13 @@
         <v>39</v>
       </c>
       <c r="B150" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="C150" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="D150" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="D150" t="s" s="2">
-        <v>481</v>
       </c>
     </row>
     <row r="151">
@@ -4087,13 +4093,13 @@
         <v>39</v>
       </c>
       <c r="B151" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="C151" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="D151" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="D151" t="s" s="2">
-        <v>484</v>
       </c>
     </row>
     <row r="152">
@@ -4101,13 +4107,13 @@
         <v>39</v>
       </c>
       <c r="B152" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="C152" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="D152" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="D152" t="s" s="2">
-        <v>487</v>
       </c>
     </row>
     <row r="153">
@@ -4115,13 +4121,13 @@
         <v>39</v>
       </c>
       <c r="B153" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="C153" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="D153" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="D153" t="s" s="2">
-        <v>490</v>
       </c>
     </row>
     <row r="154">
@@ -4129,13 +4135,13 @@
         <v>39</v>
       </c>
       <c r="B154" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="C154" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="D154" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="D154" t="s" s="2">
-        <v>493</v>
       </c>
     </row>
     <row r="155">
@@ -4143,13 +4149,13 @@
         <v>39</v>
       </c>
       <c r="B155" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="C155" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="D155" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="D155" t="s" s="2">
-        <v>496</v>
       </c>
     </row>
     <row r="156">
@@ -4157,13 +4163,13 @@
         <v>39</v>
       </c>
       <c r="B156" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="C156" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="D156" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="D156" t="s" s="2">
-        <v>499</v>
       </c>
     </row>
     <row r="157">
@@ -4171,13 +4177,13 @@
         <v>39</v>
       </c>
       <c r="B157" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="C157" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="C157" t="s" s="2">
+      <c r="D157" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="D157" t="s" s="2">
-        <v>502</v>
       </c>
     </row>
     <row r="158">
@@ -4185,13 +4191,13 @@
         <v>39</v>
       </c>
       <c r="B158" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="C158" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="D158" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="D158" t="s" s="2">
-        <v>505</v>
       </c>
     </row>
     <row r="159">
@@ -4199,13 +4205,13 @@
         <v>39</v>
       </c>
       <c r="B159" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="C159" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="D159" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="D159" t="s" s="2">
-        <v>508</v>
       </c>
     </row>
     <row r="160">
@@ -4213,13 +4219,13 @@
         <v>39</v>
       </c>
       <c r="B160" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C160" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="D160" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="D160" t="s" s="2">
-        <v>511</v>
       </c>
     </row>
     <row r="161">
@@ -4227,13 +4233,13 @@
         <v>39</v>
       </c>
       <c r="B161" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="C161" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="D161" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="D161" t="s" s="2">
-        <v>514</v>
       </c>
     </row>
     <row r="162">
@@ -4241,13 +4247,13 @@
         <v>39</v>
       </c>
       <c r="B162" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="C162" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="D162" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="D162" t="s" s="2">
-        <v>517</v>
       </c>
     </row>
     <row r="163">
@@ -4255,13 +4261,13 @@
         <v>39</v>
       </c>
       <c r="B163" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="C163" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="D163" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="D163" t="s" s="2">
-        <v>520</v>
       </c>
     </row>
     <row r="164">
@@ -4269,13 +4275,13 @@
         <v>39</v>
       </c>
       <c r="B164" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="C164" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="C164" t="s" s="2">
+      <c r="D164" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="D164" t="s" s="2">
-        <v>523</v>
       </c>
     </row>
     <row r="165">
@@ -4283,13 +4289,13 @@
         <v>39</v>
       </c>
       <c r="B165" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="C165" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="C165" t="s" s="2">
+      <c r="D165" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="D165" t="s" s="2">
-        <v>526</v>
       </c>
     </row>
     <row r="166">
@@ -4297,13 +4303,13 @@
         <v>39</v>
       </c>
       <c r="B166" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="C166" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="D166" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="D166" t="s" s="2">
-        <v>529</v>
       </c>
     </row>
     <row r="167">
@@ -4311,13 +4317,13 @@
         <v>39</v>
       </c>
       <c r="B167" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C167" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="D167" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="D167" t="s" s="2">
-        <v>532</v>
       </c>
     </row>
     <row r="168">
@@ -4325,13 +4331,13 @@
         <v>39</v>
       </c>
       <c r="B168" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="C168" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="D168" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="D168" t="s" s="2">
-        <v>535</v>
       </c>
     </row>
     <row r="169">
@@ -4339,13 +4345,13 @@
         <v>39</v>
       </c>
       <c r="B169" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="C169" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="D169" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="D169" t="s" s="2">
-        <v>538</v>
       </c>
     </row>
     <row r="170">
@@ -4353,13 +4359,13 @@
         <v>39</v>
       </c>
       <c r="B170" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="C170" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="D170" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="D170" t="s" s="2">
-        <v>541</v>
       </c>
     </row>
     <row r="171">
@@ -4367,13 +4373,13 @@
         <v>39</v>
       </c>
       <c r="B171" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="C171" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="D171" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="D171" t="s" s="2">
-        <v>544</v>
       </c>
     </row>
     <row r="172">
@@ -4381,13 +4387,13 @@
         <v>39</v>
       </c>
       <c r="B172" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="C172" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="D172" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="D172" t="s" s="2">
-        <v>547</v>
       </c>
     </row>
     <row r="173">
@@ -4395,13 +4401,27 @@
         <v>39</v>
       </c>
       <c r="B173" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="C173" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="D173" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="D173" t="s" s="2">
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B174" t="s" s="2">
         <v>550</v>
+      </c>
+      <c r="C174" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="D174" t="s" s="2">
+        <v>552</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
+++ b/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.0</t>
+    <t>2.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
+++ b/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.1</t>
+    <t>2.9.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,13 +63,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
+++ b/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.3</t>
+    <t>2.9.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
+++ b/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.4</t>
+    <t>2.9.8</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
+++ b/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.8</t>
+    <t>2.11.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
+++ b/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.1</t>
+    <t>2.11.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
+++ b/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.2</t>
+    <t>2.11.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
+++ b/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="573">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.3</t>
+    <t>2.11.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -118,7 +118,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>173</t>
+    <t>174</t>
   </si>
   <si>
     <t>Code</t>
@@ -998,6 +998,12 @@
   </si>
   <si>
     <t>Zimmer Biomet: Persona Partial Knee</t>
+  </si>
+  <si>
+    <t>persona_prk</t>
+  </si>
+  <si>
+    <t>Zimmer Biomet: Persona Revision Knee</t>
   </si>
   <si>
     <t>pfc_sigma_offset_tibial_tray</t>
@@ -2120,7 +2126,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D174"/>
+  <dimension ref="A1:D175"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3425,7 +3431,7 @@
         <v>329</v>
       </c>
       <c r="D93" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="94">
@@ -3433,13 +3439,13 @@
         <v>57</v>
       </c>
       <c r="B94" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="C94" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="C94" t="s" s="2">
+      <c r="D94" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="D94" t="s" s="2">
-        <v>333</v>
       </c>
     </row>
     <row r="95">
@@ -3447,13 +3453,13 @@
         <v>57</v>
       </c>
       <c r="B95" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C95" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="D95" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="D95" t="s" s="2">
-        <v>336</v>
       </c>
     </row>
     <row r="96">
@@ -3461,13 +3467,13 @@
         <v>57</v>
       </c>
       <c r="B96" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="C96" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="D96" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="D96" t="s" s="2">
-        <v>339</v>
       </c>
     </row>
     <row r="97">
@@ -3475,13 +3481,13 @@
         <v>57</v>
       </c>
       <c r="B97" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="C97" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="D97" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="D97" t="s" s="2">
-        <v>342</v>
       </c>
     </row>
     <row r="98">
@@ -3489,13 +3495,13 @@
         <v>57</v>
       </c>
       <c r="B98" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="C98" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="D98" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="D98" t="s" s="2">
-        <v>345</v>
       </c>
     </row>
     <row r="99">
@@ -3503,13 +3509,13 @@
         <v>57</v>
       </c>
       <c r="B99" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="C99" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="D99" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="D99" t="s" s="2">
-        <v>348</v>
       </c>
     </row>
     <row r="100">
@@ -3517,13 +3523,13 @@
         <v>57</v>
       </c>
       <c r="B100" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="C100" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="D100" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="D100" t="s" s="2">
-        <v>351</v>
       </c>
     </row>
     <row r="101">
@@ -3531,13 +3537,13 @@
         <v>57</v>
       </c>
       <c r="B101" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="C101" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="C101" t="s" s="2">
+      <c r="D101" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="D101" t="s" s="2">
-        <v>354</v>
       </c>
     </row>
     <row r="102">
@@ -3545,13 +3551,13 @@
         <v>57</v>
       </c>
       <c r="B102" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="C102" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="D102" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="D102" t="s" s="2">
-        <v>357</v>
       </c>
     </row>
     <row r="103">
@@ -3559,13 +3565,13 @@
         <v>57</v>
       </c>
       <c r="B103" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="C103" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="D103" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="D103" t="s" s="2">
-        <v>360</v>
       </c>
     </row>
     <row r="104">
@@ -3573,13 +3579,13 @@
         <v>57</v>
       </c>
       <c r="B104" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="C104" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="D104" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="D104" t="s" s="2">
-        <v>363</v>
       </c>
     </row>
     <row r="105">
@@ -3587,13 +3593,13 @@
         <v>57</v>
       </c>
       <c r="B105" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="C105" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="C105" t="s" s="2">
+      <c r="D105" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="D105" t="s" s="2">
-        <v>366</v>
       </c>
     </row>
     <row r="106">
@@ -3601,13 +3607,13 @@
         <v>57</v>
       </c>
       <c r="B106" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C106" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="D106" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="D106" t="s" s="2">
-        <v>369</v>
       </c>
     </row>
     <row r="107">
@@ -3615,13 +3621,13 @@
         <v>57</v>
       </c>
       <c r="B107" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="C107" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="D107" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="D107" t="s" s="2">
-        <v>372</v>
       </c>
     </row>
     <row r="108">
@@ -3629,13 +3635,13 @@
         <v>57</v>
       </c>
       <c r="B108" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="C108" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="D108" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="D108" t="s" s="2">
-        <v>375</v>
       </c>
     </row>
     <row r="109">
@@ -3643,13 +3649,13 @@
         <v>57</v>
       </c>
       <c r="B109" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="C109" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="D109" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="D109" t="s" s="2">
-        <v>378</v>
       </c>
     </row>
     <row r="110">
@@ -3657,13 +3663,13 @@
         <v>57</v>
       </c>
       <c r="B110" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="C110" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="D110" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="D110" t="s" s="2">
-        <v>381</v>
       </c>
     </row>
     <row r="111">
@@ -3671,13 +3677,13 @@
         <v>57</v>
       </c>
       <c r="B111" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="C111" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="D111" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="D111" t="s" s="2">
-        <v>384</v>
       </c>
     </row>
     <row r="112">
@@ -3685,13 +3691,13 @@
         <v>57</v>
       </c>
       <c r="B112" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="C112" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="D112" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="D112" t="s" s="2">
-        <v>387</v>
       </c>
     </row>
     <row r="113">
@@ -3699,13 +3705,13 @@
         <v>57</v>
       </c>
       <c r="B113" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="C113" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="D113" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="D113" t="s" s="2">
-        <v>390</v>
       </c>
     </row>
     <row r="114">
@@ -3713,13 +3719,13 @@
         <v>57</v>
       </c>
       <c r="B114" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="C114" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="D114" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="D114" t="s" s="2">
-        <v>393</v>
       </c>
     </row>
     <row r="115">
@@ -3727,13 +3733,13 @@
         <v>57</v>
       </c>
       <c r="B115" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="C115" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="D115" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="D115" t="s" s="2">
-        <v>396</v>
       </c>
     </row>
     <row r="116">
@@ -3741,13 +3747,13 @@
         <v>57</v>
       </c>
       <c r="B116" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="C116" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="D116" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="D116" t="s" s="2">
-        <v>399</v>
       </c>
     </row>
     <row r="117">
@@ -3755,13 +3761,13 @@
         <v>57</v>
       </c>
       <c r="B117" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="C117" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="D117" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="D117" t="s" s="2">
-        <v>402</v>
       </c>
     </row>
     <row r="118">
@@ -3769,13 +3775,13 @@
         <v>57</v>
       </c>
       <c r="B118" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="C118" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="D118" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="D118" t="s" s="2">
-        <v>405</v>
       </c>
     </row>
     <row r="119">
@@ -3783,13 +3789,13 @@
         <v>57</v>
       </c>
       <c r="B119" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="C119" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="D119" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="D119" t="s" s="2">
-        <v>408</v>
       </c>
     </row>
     <row r="120">
@@ -3797,13 +3803,13 @@
         <v>57</v>
       </c>
       <c r="B120" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="C120" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="D120" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="D120" t="s" s="2">
-        <v>411</v>
       </c>
     </row>
     <row r="121">
@@ -3811,13 +3817,13 @@
         <v>57</v>
       </c>
       <c r="B121" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="C121" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="D121" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="D121" t="s" s="2">
-        <v>414</v>
       </c>
     </row>
     <row r="122">
@@ -3825,13 +3831,13 @@
         <v>57</v>
       </c>
       <c r="B122" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="C122" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="D122" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="D122" t="s" s="2">
-        <v>417</v>
       </c>
     </row>
     <row r="123">
@@ -3839,13 +3845,13 @@
         <v>57</v>
       </c>
       <c r="B123" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="C123" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="D123" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="D123" t="s" s="2">
-        <v>420</v>
       </c>
     </row>
     <row r="124">
@@ -3853,13 +3859,13 @@
         <v>57</v>
       </c>
       <c r="B124" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="C124" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="D124" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="D124" t="s" s="2">
-        <v>423</v>
       </c>
     </row>
     <row r="125">
@@ -3867,13 +3873,13 @@
         <v>57</v>
       </c>
       <c r="B125" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="C125" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="D125" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="D125" t="s" s="2">
-        <v>426</v>
       </c>
     </row>
     <row r="126">
@@ -3881,13 +3887,13 @@
         <v>57</v>
       </c>
       <c r="B126" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="C126" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="D126" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="D126" t="s" s="2">
-        <v>429</v>
       </c>
     </row>
     <row r="127">
@@ -3895,13 +3901,13 @@
         <v>57</v>
       </c>
       <c r="B127" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="C127" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="D127" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="D127" t="s" s="2">
-        <v>432</v>
       </c>
     </row>
     <row r="128">
@@ -3909,13 +3915,13 @@
         <v>57</v>
       </c>
       <c r="B128" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="C128" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="D128" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="D128" t="s" s="2">
-        <v>435</v>
       </c>
     </row>
     <row r="129">
@@ -3923,13 +3929,13 @@
         <v>57</v>
       </c>
       <c r="B129" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="C129" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="D129" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="D129" t="s" s="2">
-        <v>438</v>
       </c>
     </row>
     <row r="130">
@@ -3937,10 +3943,10 @@
         <v>57</v>
       </c>
       <c r="B130" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="C130" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="C130" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="D130" t="s" s="2">
         <v>440</v>
@@ -3985,7 +3991,7 @@
         <v>446</v>
       </c>
       <c r="D133" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="134">
@@ -3993,13 +3999,13 @@
         <v>57</v>
       </c>
       <c r="B134" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C134" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="D134" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="D134" t="s" s="2">
-        <v>450</v>
       </c>
     </row>
     <row r="135">
@@ -4007,13 +4013,13 @@
         <v>57</v>
       </c>
       <c r="B135" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="C135" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="D135" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="D135" t="s" s="2">
-        <v>453</v>
       </c>
     </row>
     <row r="136">
@@ -4021,13 +4027,13 @@
         <v>57</v>
       </c>
       <c r="B136" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="C136" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="D136" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="D136" t="s" s="2">
-        <v>456</v>
       </c>
     </row>
     <row r="137">
@@ -4035,13 +4041,13 @@
         <v>57</v>
       </c>
       <c r="B137" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="C137" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="D137" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="D137" t="s" s="2">
-        <v>459</v>
       </c>
     </row>
     <row r="138">
@@ -4049,13 +4055,13 @@
         <v>57</v>
       </c>
       <c r="B138" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="C138" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="D138" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="D138" t="s" s="2">
-        <v>462</v>
       </c>
     </row>
     <row r="139">
@@ -4063,13 +4069,13 @@
         <v>57</v>
       </c>
       <c r="B139" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="C139" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="D139" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="D139" t="s" s="2">
-        <v>465</v>
       </c>
     </row>
     <row r="140">
@@ -4077,13 +4083,13 @@
         <v>57</v>
       </c>
       <c r="B140" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C140" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="D140" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="D140" t="s" s="2">
-        <v>468</v>
       </c>
     </row>
     <row r="141">
@@ -4091,13 +4097,13 @@
         <v>57</v>
       </c>
       <c r="B141" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="C141" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="D141" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="D141" t="s" s="2">
-        <v>471</v>
       </c>
     </row>
     <row r="142">
@@ -4105,13 +4111,13 @@
         <v>57</v>
       </c>
       <c r="B142" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="C142" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="D142" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="D142" t="s" s="2">
-        <v>474</v>
       </c>
     </row>
     <row r="143">
@@ -4119,13 +4125,13 @@
         <v>57</v>
       </c>
       <c r="B143" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="C143" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="D143" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="D143" t="s" s="2">
-        <v>477</v>
       </c>
     </row>
     <row r="144">
@@ -4133,13 +4139,13 @@
         <v>57</v>
       </c>
       <c r="B144" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="C144" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="D144" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="D144" t="s" s="2">
-        <v>480</v>
       </c>
     </row>
     <row r="145">
@@ -4147,13 +4153,13 @@
         <v>57</v>
       </c>
       <c r="B145" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="C145" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="D145" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="D145" t="s" s="2">
-        <v>483</v>
       </c>
     </row>
     <row r="146">
@@ -4161,13 +4167,13 @@
         <v>57</v>
       </c>
       <c r="B146" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="C146" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="D146" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="D146" t="s" s="2">
-        <v>486</v>
       </c>
     </row>
     <row r="147">
@@ -4175,13 +4181,13 @@
         <v>57</v>
       </c>
       <c r="B147" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="C147" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="D147" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="D147" t="s" s="2">
-        <v>489</v>
       </c>
     </row>
     <row r="148">
@@ -4189,13 +4195,13 @@
         <v>57</v>
       </c>
       <c r="B148" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="C148" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="D148" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="D148" t="s" s="2">
-        <v>492</v>
       </c>
     </row>
     <row r="149">
@@ -4203,13 +4209,13 @@
         <v>57</v>
       </c>
       <c r="B149" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="C149" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="D149" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="D149" t="s" s="2">
-        <v>495</v>
       </c>
     </row>
     <row r="150">
@@ -4217,13 +4223,13 @@
         <v>57</v>
       </c>
       <c r="B150" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="C150" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="D150" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="D150" t="s" s="2">
-        <v>498</v>
       </c>
     </row>
     <row r="151">
@@ -4231,13 +4237,13 @@
         <v>57</v>
       </c>
       <c r="B151" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="C151" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="D151" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="D151" t="s" s="2">
-        <v>501</v>
       </c>
     </row>
     <row r="152">
@@ -4245,13 +4251,13 @@
         <v>57</v>
       </c>
       <c r="B152" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="C152" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="D152" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="D152" t="s" s="2">
-        <v>504</v>
       </c>
     </row>
     <row r="153">
@@ -4259,13 +4265,13 @@
         <v>57</v>
       </c>
       <c r="B153" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="C153" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="D153" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="D153" t="s" s="2">
-        <v>507</v>
       </c>
     </row>
     <row r="154">
@@ -4273,13 +4279,13 @@
         <v>57</v>
       </c>
       <c r="B154" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="C154" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="D154" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="D154" t="s" s="2">
-        <v>510</v>
       </c>
     </row>
     <row r="155">
@@ -4287,13 +4293,13 @@
         <v>57</v>
       </c>
       <c r="B155" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="C155" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="D155" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="D155" t="s" s="2">
-        <v>513</v>
       </c>
     </row>
     <row r="156">
@@ -4301,13 +4307,13 @@
         <v>57</v>
       </c>
       <c r="B156" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="C156" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="D156" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="D156" t="s" s="2">
-        <v>516</v>
       </c>
     </row>
     <row r="157">
@@ -4315,13 +4321,13 @@
         <v>57</v>
       </c>
       <c r="B157" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="C157" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="C157" t="s" s="2">
+      <c r="D157" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="D157" t="s" s="2">
-        <v>519</v>
       </c>
     </row>
     <row r="158">
@@ -4329,13 +4335,13 @@
         <v>57</v>
       </c>
       <c r="B158" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="C158" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="D158" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="D158" t="s" s="2">
-        <v>522</v>
       </c>
     </row>
     <row r="159">
@@ -4343,13 +4349,13 @@
         <v>57</v>
       </c>
       <c r="B159" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="C159" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="D159" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="D159" t="s" s="2">
-        <v>525</v>
       </c>
     </row>
     <row r="160">
@@ -4357,13 +4363,13 @@
         <v>57</v>
       </c>
       <c r="B160" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="C160" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="D160" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="D160" t="s" s="2">
-        <v>528</v>
       </c>
     </row>
     <row r="161">
@@ -4371,13 +4377,13 @@
         <v>57</v>
       </c>
       <c r="B161" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="C161" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="D161" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="D161" t="s" s="2">
-        <v>531</v>
       </c>
     </row>
     <row r="162">
@@ -4385,13 +4391,13 @@
         <v>57</v>
       </c>
       <c r="B162" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="C162" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="D162" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="D162" t="s" s="2">
-        <v>534</v>
       </c>
     </row>
     <row r="163">
@@ -4399,13 +4405,13 @@
         <v>57</v>
       </c>
       <c r="B163" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="C163" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="D163" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="D163" t="s" s="2">
-        <v>537</v>
       </c>
     </row>
     <row r="164">
@@ -4413,13 +4419,13 @@
         <v>57</v>
       </c>
       <c r="B164" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="C164" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="C164" t="s" s="2">
+      <c r="D164" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="D164" t="s" s="2">
-        <v>540</v>
       </c>
     </row>
     <row r="165">
@@ -4427,13 +4433,13 @@
         <v>57</v>
       </c>
       <c r="B165" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="C165" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="C165" t="s" s="2">
+      <c r="D165" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="D165" t="s" s="2">
-        <v>543</v>
       </c>
     </row>
     <row r="166">
@@ -4441,13 +4447,13 @@
         <v>57</v>
       </c>
       <c r="B166" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="C166" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="D166" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="D166" t="s" s="2">
-        <v>546</v>
       </c>
     </row>
     <row r="167">
@@ -4455,13 +4461,13 @@
         <v>57</v>
       </c>
       <c r="B167" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="C167" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="D167" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="D167" t="s" s="2">
-        <v>549</v>
       </c>
     </row>
     <row r="168">
@@ -4469,13 +4475,13 @@
         <v>57</v>
       </c>
       <c r="B168" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="C168" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="D168" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="D168" t="s" s="2">
-        <v>552</v>
       </c>
     </row>
     <row r="169">
@@ -4483,13 +4489,13 @@
         <v>57</v>
       </c>
       <c r="B169" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="C169" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="D169" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="D169" t="s" s="2">
-        <v>555</v>
       </c>
     </row>
     <row r="170">
@@ -4497,13 +4503,13 @@
         <v>57</v>
       </c>
       <c r="B170" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="C170" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="D170" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="D170" t="s" s="2">
-        <v>558</v>
       </c>
     </row>
     <row r="171">
@@ -4511,13 +4517,13 @@
         <v>57</v>
       </c>
       <c r="B171" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="C171" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="D171" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="D171" t="s" s="2">
-        <v>561</v>
       </c>
     </row>
     <row r="172">
@@ -4525,13 +4531,13 @@
         <v>57</v>
       </c>
       <c r="B172" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="C172" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="D172" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="D172" t="s" s="2">
-        <v>564</v>
       </c>
     </row>
     <row r="173">
@@ -4539,13 +4545,13 @@
         <v>57</v>
       </c>
       <c r="B173" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="C173" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="D173" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="D173" t="s" s="2">
-        <v>567</v>
       </c>
     </row>
     <row r="174">
@@ -4553,13 +4559,27 @@
         <v>57</v>
       </c>
       <c r="B174" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="C174" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="D174" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="D174" t="s" s="2">
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B175" t="s" s="2">
         <v>570</v>
+      </c>
+      <c r="C175" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="D175" t="s" s="2">
+        <v>572</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
+++ b/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.4</t>
+    <t>2.11.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
+++ b/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.5</t>
+    <t>2.11.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
+++ b/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.6</t>
+    <t>2.12.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
+++ b/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.0</t>
+    <t>2.12.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
+++ b/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.1</t>
+    <t>2.12.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
+++ b/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.2</t>
+    <t>2.13.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
+++ b/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.13.0</t>
+    <t>2.14.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
+++ b/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.0</t>
+    <t>2.14.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
+++ b/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.1</t>
+    <t>2.14.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
+++ b/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.2</t>
+    <t>2.15.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
+++ b/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.15.0</t>
+    <t>2.16.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
+++ b/fhir/CodeSystem-KneeJointArthroplastyComponent.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.16.0</t>
+    <t>2.17.1</t>
   </si>
   <si>
     <t>Name</t>
